--- a/InputData/trans/EoFoNVFE/Effect of Feebate on New Veh Fuel Econ.xlsx
+++ b/InputData/trans/EoFoNVFE/Effect of Feebate on New Veh Fuel Econ.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="25875" windowHeight="11310"/>
+    <workbookView xWindow="360" yWindow="48" windowWidth="25872" windowHeight="11316"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="EoFoNVFE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>EoFoNVFE Effect of Feebate on New Veh Fuel Economy</t>
   </si>
@@ -48,9 +48,6 @@
     <t>percent</t>
   </si>
   <si>
-    <t>dollars</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -73,13 +70,34 @@
   </si>
   <si>
     <t>New Vehicle Fuel Econ</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>See "cpi.xlsx" in the InputData folder for source information.</t>
+  </si>
+  <si>
+    <t>We adjust 2000 dollars to 2012 dollars using the following conversion factor:</t>
+  </si>
+  <si>
+    <t>The source specifies that it uses 2000 $, for example, Page 762, Table 1A.</t>
+  </si>
+  <si>
+    <t>2000$</t>
+  </si>
+  <si>
+    <t>perc increase in fuel econ / 2000$</t>
+  </si>
+  <si>
+    <t>perc increase in fuel econ / 2012$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +121,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -118,7 +159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -126,12 +167,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -151,10 +244,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="8">
+    <cellStyle name="Body: normal cell" xfId="5"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
+    <cellStyle name="Footnotes: top row" xfId="7"/>
+    <cellStyle name="Header: bottom row" xfId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Parent row" xfId="6"/>
+    <cellStyle name="Table title" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -453,13 +555,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="84.5703125" customWidth="1"/>
+    <col min="2" max="2" width="84.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -498,7 +600,32 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>1.335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -512,25 +639,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -541,7 +668,7 @@
         <v>500</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -552,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -568,11 +695,26 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <f>B4/B2</f>
         <v>3.2000000000000003E-4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10">
+        <f>B6/About!A13</f>
+        <v>2.3970037453183523E-4</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -589,24 +731,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2">
-        <f>Data!B6</f>
-        <v>3.2000000000000003E-4</v>
+        <f>Data!B7</f>
+        <v>2.3970037453183523E-4</v>
       </c>
     </row>
   </sheetData>
